--- a/AD-EYE/TA/Configurations/SimulinkConfigExample.xlsx
+++ b/AD-EYE/TA/Configurations/SimulinkConfigExample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adeye\AD-EYE_Core\AD-EYE\TA\Configurations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EEBC42D-7E3D-4133-8F51-9293C92D9135}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A483EDC-FB7F-4DCD-9269-91F6016646BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8388" yWindow="2964" windowWidth="14724" windowHeight="12204" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,12 +84,6 @@
     <t>GoalOrientW</t>
   </si>
   <si>
-    <t>percent_reflecting_sfc</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
     <t>FaultInjectionLidar4</t>
   </si>
   <si>
@@ -100,6 +94,12 @@
   </si>
   <si>
     <t>FaultInjectionLidar3</t>
+  </si>
+  <si>
+    <t>fi_lidar_rain_intensity</t>
+  </si>
+  <si>
+    <t>fi_lidar_rain_reflectivity</t>
   </si>
 </sst>
 </file>
@@ -454,7 +454,7 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -608,7 +608,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0.9</v>
@@ -616,7 +616,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B20">
         <v>20</v>
@@ -624,7 +624,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -640,7 +640,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -648,7 +648,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B24">
         <v>2</v>
